--- a/spec/fixtures/files/models/import/adam_ig/import_input_1.xlsx
+++ b/spec/fixtures/files/models/import/adam_ig/import_input_1.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C3D4C-47C0-D14F-BBFD-788AF4957953}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9794F137-0430-9940-B6FE-9FB12F139CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40540" yWindow="460" windowWidth="28480" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="ADaM-IG" sheetId="1" r:id="rId1"/>
     <sheet name="Changes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$I$311</definedName>
-    <definedName name="_Toc357103894" localSheetId="0">Main!#REF!</definedName>
-    <definedName name="_Toc357103895" localSheetId="0">Main!#REF!</definedName>
-    <definedName name="_Toc357103896" localSheetId="0">Main!#REF!</definedName>
-    <definedName name="_Toc357103898" localSheetId="0">Main!#REF!</definedName>
-    <definedName name="_Toc357103899" localSheetId="0">Main!#REF!</definedName>
-    <definedName name="_Toc357103900" localSheetId="0">Main!$D$263</definedName>
-    <definedName name="_Toc357103901" localSheetId="0">Main!$E$263</definedName>
-    <definedName name="_Toc357103902" localSheetId="0">Main!$F$263</definedName>
-    <definedName name="_Toc357103903" localSheetId="0">Main!$G$263</definedName>
-    <definedName name="_Toc357103904" localSheetId="0">Main!$H$263</definedName>
-    <definedName name="OLE_LINK2" localSheetId="0">Main!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ADaM-IG'!$A$1:$I$311</definedName>
+    <definedName name="_Toc357103894" localSheetId="0">'ADaM-IG'!#REF!</definedName>
+    <definedName name="_Toc357103895" localSheetId="0">'ADaM-IG'!#REF!</definedName>
+    <definedName name="_Toc357103896" localSheetId="0">'ADaM-IG'!#REF!</definedName>
+    <definedName name="_Toc357103898" localSheetId="0">'ADaM-IG'!#REF!</definedName>
+    <definedName name="_Toc357103899" localSheetId="0">'ADaM-IG'!#REF!</definedName>
+    <definedName name="_Toc357103900" localSheetId="0">'ADaM-IG'!$D$263</definedName>
+    <definedName name="_Toc357103901" localSheetId="0">'ADaM-IG'!$E$263</definedName>
+    <definedName name="_Toc357103902" localSheetId="0">'ADaM-IG'!$F$263</definedName>
+    <definedName name="_Toc357103903" localSheetId="0">'ADaM-IG'!$G$263</definedName>
+    <definedName name="_Toc357103904" localSheetId="0">'ADaM-IG'!$H$263</definedName>
+    <definedName name="OLE_LINK2" localSheetId="0">'ADaM-IG'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -3393,7 +3393,7 @@
   <dimension ref="A1:I311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/spec/fixtures/files/models/import/adam_ig/import_input_1.xlsx
+++ b/spec/fixtures/files/models/import/adam_ig/import_input_1.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9794F137-0430-9940-B6FE-9FB12F139CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5968061F-E7DE-294C-96C2-327E1C4D0376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6520" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ADaM-IG" sheetId="1" r:id="rId1"/>
+    <sheet name="ADaM IG" sheetId="1" r:id="rId1"/>
     <sheet name="Changes" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ADaM-IG'!$A$1:$I$311</definedName>
-    <definedName name="_Toc357103894" localSheetId="0">'ADaM-IG'!#REF!</definedName>
-    <definedName name="_Toc357103895" localSheetId="0">'ADaM-IG'!#REF!</definedName>
-    <definedName name="_Toc357103896" localSheetId="0">'ADaM-IG'!#REF!</definedName>
-    <definedName name="_Toc357103898" localSheetId="0">'ADaM-IG'!#REF!</definedName>
-    <definedName name="_Toc357103899" localSheetId="0">'ADaM-IG'!#REF!</definedName>
-    <definedName name="_Toc357103900" localSheetId="0">'ADaM-IG'!$D$263</definedName>
-    <definedName name="_Toc357103901" localSheetId="0">'ADaM-IG'!$E$263</definedName>
-    <definedName name="_Toc357103902" localSheetId="0">'ADaM-IG'!$F$263</definedName>
-    <definedName name="_Toc357103903" localSheetId="0">'ADaM-IG'!$G$263</definedName>
-    <definedName name="_Toc357103904" localSheetId="0">'ADaM-IG'!$H$263</definedName>
-    <definedName name="OLE_LINK2" localSheetId="0">'ADaM-IG'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ADaM IG'!$A$1:$I$311</definedName>
+    <definedName name="_Toc357103894" localSheetId="0">'ADaM IG'!#REF!</definedName>
+    <definedName name="_Toc357103895" localSheetId="0">'ADaM IG'!#REF!</definedName>
+    <definedName name="_Toc357103896" localSheetId="0">'ADaM IG'!#REF!</definedName>
+    <definedName name="_Toc357103898" localSheetId="0">'ADaM IG'!#REF!</definedName>
+    <definedName name="_Toc357103899" localSheetId="0">'ADaM IG'!#REF!</definedName>
+    <definedName name="_Toc357103900" localSheetId="0">'ADaM IG'!$D$263</definedName>
+    <definedName name="_Toc357103901" localSheetId="0">'ADaM IG'!$E$263</definedName>
+    <definedName name="_Toc357103902" localSheetId="0">'ADaM IG'!$F$263</definedName>
+    <definedName name="_Toc357103903" localSheetId="0">'ADaM IG'!$G$263</definedName>
+    <definedName name="_Toc357103904" localSheetId="0">'ADaM IG'!$H$263</definedName>
+    <definedName name="OLE_LINK2" localSheetId="0">'ADaM IG'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -3392,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
